--- a/2021_cboc_signin_sheets/07July_2021_cboc_signin_sheet.xlsx
+++ b/2021_cboc_signin_sheets/07July_2021_cboc_signin_sheet.xlsx
@@ -726,8 +726,8 @@
     <col customWidth="1" max="7" min="7" width="2.5"/>
     <col customWidth="1" max="8" min="8" width="2.5"/>
     <col customWidth="1" max="9" min="9" width="2.5"/>
-    <col customWidth="1" max="10" min="10" width="4.5"/>
-    <col customWidth="1" max="11" min="11" width="4.5"/>
+    <col customWidth="1" max="10" min="10" width="2.5"/>
+    <col customWidth="1" max="11" min="11" width="2.5"/>
     <col customWidth="1" max="12" min="12" width="4.5"/>
     <col customWidth="1" max="13" min="13" width="4.5"/>
     <col customWidth="1" max="14" min="14" width="4.5"/>
@@ -817,12 +817,12 @@
         </is>
       </c>
       <c r="I2" s="8" t="n"/>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" s="7" t="inlineStr">
         <is>
           <t>MON</t>
         </is>
       </c>
-      <c r="K2" s="6" t="n"/>
+      <c r="K2" s="8" t="n"/>
       <c r="L2" s="5" t="inlineStr">
         <is>
           <t>TUE</t>
@@ -906,10 +906,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="8" t="n"/>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="K3" s="6" t="n"/>
+      <c r="K3" s="8" t="n"/>
       <c r="L3" s="5" t="n">
         <v>6</v>
       </c>
@@ -993,12 +993,12 @@
           <t>Time of Arrival</t>
         </is>
       </c>
-      <c r="J4" s="11" t="inlineStr">
+      <c r="J4" s="13" t="inlineStr">
         <is>
           <t>Tech</t>
         </is>
       </c>
-      <c r="K4" s="12" t="inlineStr">
+      <c r="K4" s="14" t="inlineStr">
         <is>
           <t>Time of Arrival</t>
         </is>
@@ -1134,8 +1134,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J5" s="16" t="n"/>
-      <c r="K5" s="17" t="n"/>
+      <c r="J5" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K5" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L5" s="16" t="n"/>
       <c r="M5" s="17" t="n"/>
       <c r="N5" s="16" t="n"/>
@@ -1203,8 +1211,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J6" s="21" t="n"/>
-      <c r="K6" s="22" t="n"/>
+      <c r="J6" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K6" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L6" s="21" t="n"/>
       <c r="M6" s="22" t="n"/>
       <c r="N6" s="21" t="n"/>
@@ -1252,8 +1268,8 @@
       <c r="G7" s="28" t="n"/>
       <c r="H7" s="27" t="n"/>
       <c r="I7" s="28" t="n"/>
-      <c r="J7" s="25" t="n"/>
-      <c r="K7" s="26" t="n"/>
+      <c r="J7" s="27" t="n"/>
+      <c r="K7" s="28" t="n"/>
       <c r="L7" s="25" t="n"/>
       <c r="M7" s="26" t="n"/>
       <c r="N7" s="25" t="n"/>
@@ -1305,8 +1321,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J8" s="16" t="n"/>
-      <c r="K8" s="17" t="n"/>
+      <c r="J8" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K8" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L8" s="16" t="n"/>
       <c r="M8" s="17" t="n"/>
       <c r="N8" s="16" t="n"/>
@@ -1374,8 +1398,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J9" s="21" t="n"/>
-      <c r="K9" s="22" t="n"/>
+      <c r="J9" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K9" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L9" s="21" t="n"/>
       <c r="M9" s="22" t="n"/>
       <c r="N9" s="21" t="n"/>
@@ -1423,8 +1455,8 @@
       <c r="G10" s="28" t="n"/>
       <c r="H10" s="27" t="n"/>
       <c r="I10" s="28" t="n"/>
-      <c r="J10" s="25" t="n"/>
-      <c r="K10" s="26" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="28" t="n"/>
       <c r="L10" s="25" t="n"/>
       <c r="M10" s="26" t="n"/>
       <c r="N10" s="25" t="n"/>
@@ -1476,8 +1508,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J11" s="16" t="n"/>
-      <c r="K11" s="17" t="n"/>
+      <c r="J11" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K11" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L11" s="16" t="n"/>
       <c r="M11" s="17" t="n"/>
       <c r="N11" s="16" t="n"/>
@@ -1545,8 +1585,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J12" s="21" t="n"/>
-      <c r="K12" s="22" t="n"/>
+      <c r="J12" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K12" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L12" s="21" t="n"/>
       <c r="M12" s="22" t="n"/>
       <c r="N12" s="21" t="n"/>
@@ -1594,8 +1642,8 @@
       <c r="G13" s="28" t="n"/>
       <c r="H13" s="27" t="n"/>
       <c r="I13" s="28" t="n"/>
-      <c r="J13" s="25" t="n"/>
-      <c r="K13" s="26" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="28" t="n"/>
       <c r="L13" s="25" t="n"/>
       <c r="M13" s="26" t="n"/>
       <c r="N13" s="25" t="n"/>
@@ -1647,8 +1695,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J14" s="16" t="n"/>
-      <c r="K14" s="17" t="n"/>
+      <c r="J14" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K14" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L14" s="16" t="n"/>
       <c r="M14" s="17" t="n"/>
       <c r="N14" s="16" t="n"/>
@@ -1716,8 +1772,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J15" s="21" t="n"/>
-      <c r="K15" s="22" t="n"/>
+      <c r="J15" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K15" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L15" s="21" t="n"/>
       <c r="M15" s="22" t="n"/>
       <c r="N15" s="21" t="n"/>
@@ -1765,8 +1829,8 @@
       <c r="G16" s="28" t="n"/>
       <c r="H16" s="27" t="n"/>
       <c r="I16" s="28" t="n"/>
-      <c r="J16" s="25" t="n"/>
-      <c r="K16" s="26" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="28" t="n"/>
       <c r="L16" s="25" t="n"/>
       <c r="M16" s="26" t="n"/>
       <c r="N16" s="25" t="n"/>
@@ -1818,8 +1882,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J17" s="16" t="n"/>
-      <c r="K17" s="17" t="n"/>
+      <c r="J17" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K17" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L17" s="16" t="n"/>
       <c r="M17" s="17" t="n"/>
       <c r="N17" s="16" t="n"/>
@@ -1887,8 +1959,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J18" s="21" t="n"/>
-      <c r="K18" s="22" t="n"/>
+      <c r="J18" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K18" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L18" s="21" t="n"/>
       <c r="M18" s="22" t="n"/>
       <c r="N18" s="21" t="n"/>
@@ -1936,8 +2016,8 @@
       <c r="G19" s="28" t="n"/>
       <c r="H19" s="27" t="n"/>
       <c r="I19" s="28" t="n"/>
-      <c r="J19" s="25" t="n"/>
-      <c r="K19" s="26" t="n"/>
+      <c r="J19" s="27" t="n"/>
+      <c r="K19" s="28" t="n"/>
       <c r="L19" s="25" t="n"/>
       <c r="M19" s="26" t="n"/>
       <c r="N19" s="25" t="n"/>
@@ -1989,8 +2069,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J20" s="16" t="n"/>
-      <c r="K20" s="17" t="n"/>
+      <c r="J20" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K20" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L20" s="16" t="n"/>
       <c r="M20" s="17" t="n"/>
       <c r="N20" s="16" t="n"/>
@@ -2058,8 +2146,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J21" s="21" t="n"/>
-      <c r="K21" s="22" t="n"/>
+      <c r="J21" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K21" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L21" s="21" t="n"/>
       <c r="M21" s="22" t="n"/>
       <c r="N21" s="21" t="n"/>
@@ -2107,8 +2203,8 @@
       <c r="G22" s="28" t="n"/>
       <c r="H22" s="27" t="n"/>
       <c r="I22" s="28" t="n"/>
-      <c r="J22" s="25" t="n"/>
-      <c r="K22" s="26" t="n"/>
+      <c r="J22" s="27" t="n"/>
+      <c r="K22" s="28" t="n"/>
       <c r="L22" s="25" t="n"/>
       <c r="M22" s="26" t="n"/>
       <c r="N22" s="25" t="n"/>
@@ -2160,8 +2256,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J23" s="16" t="n"/>
-      <c r="K23" s="17" t="n"/>
+      <c r="J23" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K23" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L23" s="16" t="n"/>
       <c r="M23" s="17" t="n"/>
       <c r="N23" s="16" t="n"/>
@@ -2229,8 +2333,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J24" s="21" t="n"/>
-      <c r="K24" s="22" t="n"/>
+      <c r="J24" s="23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K24" s="24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L24" s="21" t="n"/>
       <c r="M24" s="22" t="n"/>
       <c r="N24" s="21" t="n"/>
@@ -2278,8 +2390,8 @@
       <c r="G25" s="28" t="n"/>
       <c r="H25" s="27" t="n"/>
       <c r="I25" s="28" t="n"/>
-      <c r="J25" s="25" t="n"/>
-      <c r="K25" s="26" t="n"/>
+      <c r="J25" s="27" t="n"/>
+      <c r="K25" s="28" t="n"/>
       <c r="L25" s="25" t="n"/>
       <c r="M25" s="26" t="n"/>
       <c r="N25" s="25" t="n"/>
@@ -2331,8 +2443,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J26" s="16" t="n"/>
-      <c r="K26" s="17" t="n"/>
+      <c r="J26" s="18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K26" s="19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L26" s="16" t="n"/>
       <c r="M26" s="17" t="n"/>
       <c r="N26" s="16" t="n"/>
@@ -2400,8 +2520,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="J27" s="29" t="n"/>
-      <c r="K27" s="30" t="n"/>
+      <c r="J27" s="31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K27" s="32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="L27" s="29" t="n"/>
       <c r="M27" s="30" t="n"/>
       <c r="N27" s="29" t="n"/>
